--- a/clustering/two_step/second_step/results/descriptive_stat/normalized/statistics_cluster_L.xlsx
+++ b/clustering/two_step/second_step/results/descriptive_stat/normalized/statistics_cluster_L.xlsx
@@ -440,13 +440,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -454,13 +454,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-0.757805175298224</v>
+        <v>-0.7167095532708473</v>
       </c>
       <c r="C3">
-        <v>0.4985577528008208</v>
+        <v>0.2490571916079572</v>
       </c>
       <c r="D3">
-        <v>0.2627631847004425</v>
+        <v>0.4634356886750693</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -468,13 +468,13 @@
         <v>5</v>
       </c>
       <c r="B4">
+        <v>-2.019012368990948</v>
+      </c>
+      <c r="C4">
         <v>-2.034689902245864</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-1.668958883399071</v>
-      </c>
-      <c r="D4">
-        <v>-1.964427409465541</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -482,13 +482,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-1.835626948607883</v>
+        <v>-1.818501178966237</v>
       </c>
       <c r="C5">
-        <v>0.08262507869553913</v>
+        <v>-0.3467679902371687</v>
       </c>
       <c r="D5">
-        <v>-0.3132842407974569</v>
+        <v>-0.01878713485362</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -496,13 +496,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.8991108202331866</v>
+        <v>-0.8923389379286173</v>
       </c>
       <c r="C6">
-        <v>0.3687084913695813</v>
+        <v>0.1413859877093526</v>
       </c>
       <c r="D6">
-        <v>0.1218502172697165</v>
+        <v>0.3683613444478421</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -510,13 +510,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.213917645840514</v>
+        <v>-0.1175155152425499</v>
       </c>
       <c r="C7">
-        <v>0.7672928143326913</v>
+        <v>0.5198265326031647</v>
       </c>
       <c r="D7">
-        <v>0.5195703190067831</v>
+        <v>0.7332301982313595</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -524,13 +524,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.03300225279662151</v>
+        <v>0.04220108731684664</v>
       </c>
       <c r="C8">
-        <v>1.071458122219785</v>
+        <v>0.8683741655859137</v>
       </c>
       <c r="D8">
-        <v>0.8167598633626143</v>
+        <v>1.053711057578683</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -541,10 +541,10 @@
         <v>0.8842627894197117</v>
       </c>
       <c r="C9">
+        <v>1.868630021823396</v>
+      </c>
+      <c r="D9">
         <v>1.646798106297531</v>
-      </c>
-      <c r="D9">
-        <v>1.868630021823396</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -552,13 +552,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.9262973812303951</v>
+        <v>0.9265470980224063</v>
       </c>
       <c r="C10">
-        <v>0.7243470918269495</v>
+        <v>0.8389301478203105</v>
       </c>
       <c r="D10">
-        <v>0.7865357401998435</v>
+        <v>0.7337690938123338</v>
       </c>
     </row>
   </sheetData>
@@ -590,13 +590,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -604,13 +604,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>6.200561421136851</v>
+        <v>6.108723942282126</v>
       </c>
       <c r="C3">
-        <v>0.285720715307761</v>
+        <v>5.800285619949425</v>
       </c>
       <c r="D3">
-        <v>5.941556555139345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -621,10 +621,10 @@
         <v>4.030321481383546</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3.169255983983055</v>
       </c>
       <c r="D4">
-        <v>4.196253175465825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -632,13 +632,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>4.760845534006609</v>
+        <v>4.678883344058908</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>4.714637002326581</v>
       </c>
       <c r="D5">
-        <v>4.935124713270435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -646,13 +646,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>5.863663061010993</v>
+        <v>5.560488385848042</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>5.538879918513884</v>
       </c>
       <c r="D6">
-        <v>5.596293811090214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -660,13 +660,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>7.05321617114141</v>
+        <v>6.609097624756373</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>6.140118995140281</v>
       </c>
       <c r="D7">
-        <v>6.146293761831952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -674,13 +674,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>7.58429419866423</v>
+        <v>7.552084385365567</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>7.102129307830072</v>
       </c>
       <c r="D8">
-        <v>6.778169886580284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -691,10 +691,10 @@
         <v>8.402907231130992</v>
       </c>
       <c r="C9">
-        <v>3.319639001589072</v>
+        <v>8.288524760468615</v>
       </c>
       <c r="D9">
-        <v>8.288524760468615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -702,13 +702,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>1.359326717709171</v>
+        <v>1.363596710634799</v>
       </c>
       <c r="C10">
-        <v>0.9252780378572796</v>
+        <v>1.303531466211495</v>
       </c>
       <c r="D10">
-        <v>1.108624161861063</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -740,13 +740,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -754,13 +754,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1.356829371980115</v>
+        <v>1.457335251386049</v>
       </c>
       <c r="C3">
-        <v>1.26519634817529</v>
+        <v>1.697355963556565</v>
       </c>
       <c r="D3">
-        <v>1.901038679183352</v>
+        <v>1.388630138241172</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -810,13 +810,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1.743508237187429</v>
+        <v>2.473483954995262</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2.402582995077638</v>
       </c>
       <c r="D7">
-        <v>2.652806528593585</v>
+        <v>1.876893866524708</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -824,13 +824,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>3.132090017748456</v>
+        <v>3.159431067947253</v>
       </c>
       <c r="C8">
-        <v>3.51597119478151</v>
+        <v>3.55052006578604</v>
       </c>
       <c r="D8">
-        <v>4.053554274704249</v>
+        <v>3.554239576698817</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -841,10 +841,10 @@
         <v>4.530215527769955</v>
       </c>
       <c r="C9">
+        <v>5.27589060471821</v>
+      </c>
+      <c r="D9">
         <v>4.631263435548739</v>
-      </c>
-      <c r="D9">
-        <v>5.27589060471821</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -852,13 +852,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>1.690006504574223</v>
+        <v>1.709888717097424</v>
       </c>
       <c r="C10">
-        <v>1.736773767269482</v>
+        <v>1.908846595324427</v>
       </c>
       <c r="D10">
-        <v>1.922173550809295</v>
+        <v>1.772662532056252</v>
       </c>
     </row>
   </sheetData>
@@ -890,13 +890,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -904,13 +904,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>2.497689544314715</v>
+        <v>2.499557394546398</v>
       </c>
       <c r="C3">
-        <v>2.672063096750592</v>
+        <v>2.743446043992509</v>
       </c>
       <c r="D3">
-        <v>2.757657494431308</v>
+        <v>2.669211774247207</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -921,10 +921,10 @@
         <v>1.922329588799223</v>
       </c>
       <c r="C4">
+        <v>2.135316427666377</v>
+      </c>
+      <c r="D4">
         <v>2.023286153659192</v>
-      </c>
-      <c r="D4">
-        <v>2.348333312782232</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -932,13 +932,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>2.197791905697508</v>
+        <v>2.218098397103071</v>
       </c>
       <c r="C5">
-        <v>2.523156769434016</v>
+        <v>2.716578680495715</v>
       </c>
       <c r="D5">
-        <v>2.733875177829586</v>
+        <v>2.517673461010682</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -946,13 +946,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>2.45987177044828</v>
+        <v>2.476760686369099</v>
       </c>
       <c r="C6">
-        <v>2.738049462772625</v>
+        <v>2.796044156891326</v>
       </c>
       <c r="D6">
-        <v>2.799129811424748</v>
+        <v>2.745425411975136</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -960,13 +960,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>2.632806026705953</v>
+        <v>2.627822055529939</v>
       </c>
       <c r="C7">
-        <v>2.800584794424886</v>
+        <v>2.814206042794852</v>
       </c>
       <c r="D7">
-        <v>2.814525133122079</v>
+        <v>2.805942601957458</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -974,13 +974,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>2.764687710079651</v>
+        <v>2.751705106773334</v>
       </c>
       <c r="C8">
-        <v>2.814801667232668</v>
+        <v>2.816888708190693</v>
       </c>
       <c r="D8">
-        <v>2.816968806916791</v>
+        <v>2.814839284282734</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -991,10 +991,10 @@
         <v>2.817136551499878</v>
       </c>
       <c r="C9">
+        <v>2.817141105466919</v>
+      </c>
+      <c r="D9">
         <v>2.817138945938485</v>
-      </c>
-      <c r="D9">
-        <v>2.817141105466919</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1002,13 +1002,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.2730135797720496</v>
+        <v>0.267344768054626</v>
       </c>
       <c r="C10">
-        <v>0.206351432688465</v>
+        <v>0.1429732287426775</v>
       </c>
       <c r="D10">
-        <v>0.1189729103694451</v>
+        <v>0.2139227976372856</v>
       </c>
     </row>
   </sheetData>
@@ -1040,13 +1040,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1054,13 +1054,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-1.922830365001943</v>
+        <v>-2.000432240507334</v>
       </c>
       <c r="C3">
-        <v>-0.05215646771552777</v>
+        <v>-0.1580700042444338</v>
       </c>
       <c r="D3">
-        <v>-0.1048268173763083</v>
+        <v>-0.01187492121180975</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1071,10 +1071,10 @@
         <v>-2.862059430856877</v>
       </c>
       <c r="C4">
+        <v>-1.847797547723215</v>
+      </c>
+      <c r="D4">
         <v>-1.542539155398455</v>
-      </c>
-      <c r="D4">
-        <v>-1.847797547723215</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1082,13 +1082,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-2.515253092795202</v>
+        <v>-2.551921884641539</v>
       </c>
       <c r="C5">
-        <v>-0.9992141105098309</v>
+        <v>-0.6930930074757038</v>
       </c>
       <c r="D5">
-        <v>-0.6640678354422874</v>
+        <v>-0.973510952971067</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1096,13 +1096,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>-2.255634556446211</v>
+        <v>-2.285511386302765</v>
       </c>
       <c r="C6">
-        <v>-0.6211947877223659</v>
+        <v>-0.5292650782229594</v>
       </c>
       <c r="D6">
-        <v>-0.4541380981276703</v>
+        <v>-0.5611566808841431</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1110,13 +1110,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>-1.576012418759456</v>
+        <v>-1.673130543370134</v>
       </c>
       <c r="C7">
-        <v>0.3595204145344718</v>
+        <v>0.0309105675108088</v>
       </c>
       <c r="D7">
-        <v>0.1212468314449488</v>
+        <v>0.5267529255379498</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1124,13 +1124,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>-1.423621957619867</v>
+        <v>-1.463642848306822</v>
       </c>
       <c r="C8">
-        <v>0.9387445019210799</v>
+        <v>0.5594445814872208</v>
       </c>
       <c r="D8">
-        <v>0.5765730416444941</v>
+        <v>1.043604917143612</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1138,13 +1138,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.5912706720081631</v>
+        <v>-1.292746488512684</v>
       </c>
       <c r="C9">
+        <v>1.472180946727284</v>
+      </c>
+      <c r="D9">
         <v>2.215954548482278</v>
-      </c>
-      <c r="D9">
-        <v>1.472180946727284</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1152,13 +1152,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.5808351782697189</v>
+        <v>0.5161795925222854</v>
       </c>
       <c r="C10">
-        <v>0.9999307511764594</v>
+        <v>0.7201402426421484</v>
       </c>
       <c r="D10">
-        <v>0.7134663225757323</v>
+        <v>1.017024096504761</v>
       </c>
     </row>
   </sheetData>
@@ -1190,13 +1190,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1204,13 +1204,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.1964182443116433</v>
+        <v>0.2163769255462499</v>
       </c>
       <c r="C3">
-        <v>0.3005262762055358</v>
+        <v>-0.03095034839055965</v>
       </c>
       <c r="D3">
-        <v>-0.05096017571616829</v>
+        <v>0.3064108597219743</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1221,10 +1221,10 @@
         <v>-0.8753628224934991</v>
       </c>
       <c r="C4">
+        <v>-1.188288880250634</v>
+      </c>
+      <c r="D4">
         <v>-0.8629951761985462</v>
-      </c>
-      <c r="D4">
-        <v>-1.188288880250634</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1232,13 +1232,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-0.2934826803403742</v>
+        <v>-0.3262315881077423</v>
       </c>
       <c r="C5">
-        <v>-0.1590495730460731</v>
+        <v>-0.6088350726525038</v>
       </c>
       <c r="D5">
-        <v>-0.6530182246444073</v>
+        <v>-0.1534373585199386</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1246,13 +1246,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.1182532623472685</v>
+        <v>0.1985849609304525</v>
       </c>
       <c r="C6">
-        <v>0.1826643621594164</v>
+        <v>-0.1944351624869822</v>
       </c>
       <c r="D6">
-        <v>-0.2704406760524162</v>
+        <v>0.1880033712316909</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1260,13 +1260,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.3685722615937694</v>
+        <v>0.4067173174746934</v>
       </c>
       <c r="C7">
-        <v>0.4923875372499646</v>
+        <v>0.1084361915897313</v>
       </c>
       <c r="D7">
-        <v>0.1478105557616605</v>
+        <v>0.4855023390301756</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1274,13 +1274,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.5698655098089928</v>
+        <v>0.5941148356462789</v>
       </c>
       <c r="C8">
-        <v>0.8949615139604969</v>
+        <v>0.6274003937578334</v>
       </c>
       <c r="D8">
-        <v>0.6128335322208062</v>
+        <v>0.9026369648609286</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1291,10 +1291,10 @@
         <v>1.404777157292033</v>
       </c>
       <c r="C9">
+        <v>1.415919252999295</v>
+      </c>
+      <c r="D9">
         <v>1.299641601566763</v>
-      </c>
-      <c r="D9">
-        <v>1.415919252999295</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1302,13 +1302,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.551440194493954</v>
+        <v>0.5649659733870239</v>
       </c>
       <c r="C10">
-        <v>0.5634970054950946</v>
+        <v>0.6240388378606392</v>
       </c>
       <c r="D10">
-        <v>0.644544499639649</v>
+        <v>0.5759921361658564</v>
       </c>
     </row>
   </sheetData>
@@ -1340,13 +1340,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1354,13 +1354,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-1.992032131480923</v>
+        <v>-1.98564633686243</v>
       </c>
       <c r="C3">
-        <v>-0.7419104473046007</v>
+        <v>-0.6538555479306171</v>
       </c>
       <c r="D3">
-        <v>-0.5738293601258814</v>
+        <v>-0.7223904431353103</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1371,10 +1371,10 @@
         <v>-2.648710173830522</v>
       </c>
       <c r="C4">
+        <v>-2.784035819398008</v>
+      </c>
+      <c r="D4">
         <v>-2.232647491477082</v>
-      </c>
-      <c r="D4">
-        <v>-2.784035819398008</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1382,13 +1382,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-2.18118673906856</v>
+        <v>-2.165119169352235</v>
       </c>
       <c r="C5">
-        <v>-0.9711344151409333</v>
+        <v>-1.062112425675821</v>
       </c>
       <c r="D5">
-        <v>-0.950737959790804</v>
+        <v>-0.954231363190096</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1396,13 +1396,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>-1.995155089138582</v>
+        <v>-1.98977938401422</v>
       </c>
       <c r="C6">
-        <v>-0.8628902188699159</v>
+        <v>-0.862526740505867</v>
       </c>
       <c r="D6">
-        <v>-0.8546943209994152</v>
+        <v>-0.8590275078282659</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1410,13 +1410,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>-1.898440837835436</v>
+        <v>-1.899555230363233</v>
       </c>
       <c r="C7">
-        <v>-0.7432618102877349</v>
+        <v>-0.2300904075300745</v>
       </c>
       <c r="D7">
-        <v>-0.0995245890671507</v>
+        <v>-0.7375533943305319</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1424,13 +1424,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>-1.791396869139839</v>
+        <v>-1.803563165915733</v>
       </c>
       <c r="C8">
-        <v>-0.2608668199434993</v>
+        <v>0.0504893283286752</v>
       </c>
       <c r="D8">
-        <v>0.06486446779166564</v>
+        <v>-0.2297789891691729</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1441,10 +1441,10 @@
         <v>-1.545869996145594</v>
       </c>
       <c r="C9">
+        <v>0.130431126815489</v>
+      </c>
+      <c r="D9">
         <v>0.2784658710655345</v>
-      </c>
-      <c r="D9">
-        <v>0.130431126815489</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1452,13 +1452,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.2471823681873225</v>
+        <v>0.2276040890457389</v>
       </c>
       <c r="C10">
-        <v>0.5456792686826276</v>
+        <v>0.7016396654928169</v>
       </c>
       <c r="D10">
-        <v>0.6671331664137276</v>
+        <v>0.5638210986219127</v>
       </c>
     </row>
   </sheetData>
@@ -1490,13 +1490,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1504,13 +1504,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.5879576949845426</v>
+        <v>0.7105475260742546</v>
       </c>
       <c r="C3">
-        <v>1.0765434560237</v>
+        <v>1.264287320390215</v>
       </c>
       <c r="D3">
-        <v>1.399186537300385</v>
+        <v>1.109016643775136</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1535,10 +1535,10 @@
         <v>-1.06700502472657</v>
       </c>
       <c r="C5">
-        <v>0.3172316928023325</v>
+        <v>0.5674100032867747</v>
       </c>
       <c r="D5">
-        <v>0.6231161595516891</v>
+        <v>0.32238252663689</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1546,13 +1546,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.1553042374721263</v>
+        <v>0.5352397679481489</v>
       </c>
       <c r="C6">
-        <v>0.9366540185976219</v>
+        <v>1.023172267286095</v>
       </c>
       <c r="D6">
-        <v>1.143590840591938</v>
+        <v>0.9540550316924404</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1560,13 +1560,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1.080573520139996</v>
+        <v>1.189689969464615</v>
       </c>
       <c r="C7">
-        <v>1.326700640083466</v>
+        <v>1.400801853964014</v>
       </c>
       <c r="D7">
-        <v>1.537730412245617</v>
+        <v>1.454867395287312</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1574,13 +1574,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>1.86372002988822</v>
+        <v>1.988310950188605</v>
       </c>
       <c r="C8">
-        <v>1.8074533736021</v>
+        <v>2.098743082970916</v>
       </c>
       <c r="D8">
-        <v>2.106810380689323</v>
+        <v>1.84726143074804</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1591,10 +1591,10 @@
         <v>3.825964569308994</v>
       </c>
       <c r="C9">
+        <v>3.696111949246577</v>
+      </c>
+      <c r="D9">
         <v>2.765977990848459</v>
-      </c>
-      <c r="D9">
-        <v>3.696111949246577</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1602,13 +1602,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>1.498072605516185</v>
+        <v>1.480055046680826</v>
       </c>
       <c r="C10">
-        <v>0.9365907213233862</v>
+        <v>1.081447532990665</v>
       </c>
       <c r="D10">
-        <v>1.018462093335766</v>
+        <v>0.9679387794862371</v>
       </c>
     </row>
   </sheetData>
@@ -1640,13 +1640,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1654,13 +1654,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>5.291644845051525</v>
+        <v>5.561538071733723</v>
       </c>
       <c r="C3">
-        <v>0.5872661786446943</v>
+        <v>0.4354279932640635</v>
       </c>
       <c r="D3">
-        <v>0.3694769269295902</v>
+        <v>0.580805593472851</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1668,13 +1668,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>1.583574260750808</v>
+        <v>2.486842785991885</v>
       </c>
       <c r="C4">
+        <v>-0.5500633342174874</v>
+      </c>
+      <c r="D4">
         <v>-0.6520446868877714</v>
-      </c>
-      <c r="D4">
-        <v>-0.5500633342174874</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1682,13 +1682,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>3.532398677650342</v>
+        <v>4.090385059102483</v>
       </c>
       <c r="C5">
-        <v>-0.2080056091566298</v>
+        <v>-0.2161325228193392</v>
       </c>
       <c r="D5">
-        <v>-0.2628566954583558</v>
+        <v>-0.2104171116376173</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1696,13 +1696,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>4.831715413633077</v>
+        <v>4.893187396245438</v>
       </c>
       <c r="C6">
-        <v>-0.04712675370132734</v>
+        <v>-0.0331906803302176</v>
       </c>
       <c r="D6">
-        <v>-0.07763735435012714</v>
+        <v>-0.0746708398981025</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1710,13 +1710,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>5.821321796426139</v>
+        <v>5.964220287508481</v>
       </c>
       <c r="C7">
-        <v>0.5860213629597393</v>
+        <v>0.4214381471852149</v>
       </c>
       <c r="D7">
-        <v>0.378186188621539</v>
+        <v>0.6651638871557037</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1724,13 +1724,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>6.731300937842566</v>
+        <v>6.992493535343519</v>
       </c>
       <c r="C8">
-        <v>1.239579573493276</v>
+        <v>1.343150562664378</v>
       </c>
       <c r="D8">
-        <v>1.253663125539747</v>
+        <v>1.231413254778718</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1741,10 +1741,10 @@
         <v>11.42944035764755</v>
       </c>
       <c r="C9">
+        <v>1.87960707777007</v>
+      </c>
+      <c r="D9">
         <v>5.474272446427344</v>
-      </c>
-      <c r="D9">
-        <v>1.868957363593776</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1752,13 +1752,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>2.21039957933593</v>
+        <v>2.040721509761612</v>
       </c>
       <c r="C10">
-        <v>1.169651983427918</v>
+        <v>0.7616687024652165</v>
       </c>
       <c r="D10">
-        <v>0.7342963518983382</v>
+        <v>1.204640095836618</v>
       </c>
     </row>
   </sheetData>
@@ -1790,13 +1790,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1804,13 +1804,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-0.5477750815211673</v>
+        <v>-0.5394112650953764</v>
       </c>
       <c r="C3">
-        <v>-0.6710691077914257</v>
+        <v>-0.2978058084357323</v>
       </c>
       <c r="D3">
-        <v>-0.238190617562576</v>
+        <v>-0.6524850893385521</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1821,10 +1821,10 @@
         <v>-1.234731220222713</v>
       </c>
       <c r="C4">
+        <v>-1.540210515283077</v>
+      </c>
+      <c r="D4">
         <v>-1.641607043745752</v>
-      </c>
-      <c r="D4">
-        <v>-1.540210515283077</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1832,13 +1832,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-0.8129502276166504</v>
+        <v>-0.8180659906984534</v>
       </c>
       <c r="C5">
-        <v>-1.182182795232493</v>
+        <v>-0.8506296081283571</v>
       </c>
       <c r="D5">
-        <v>-0.835272397367315</v>
+        <v>-1.209126592547109</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1846,13 +1846,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.6788677720821329</v>
+        <v>-0.6649127059642245</v>
       </c>
       <c r="C6">
-        <v>-0.8996255007880198</v>
+        <v>-0.6497810651873233</v>
       </c>
       <c r="D6">
-        <v>-0.5867836373680188</v>
+        <v>-0.8641363915022767</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1860,13 +1860,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.5047610806345511</v>
+        <v>-0.4394832750756993</v>
       </c>
       <c r="C7">
-        <v>-0.6366449075706248</v>
+        <v>-0.0845957646444979</v>
       </c>
       <c r="D7">
-        <v>-0.04415934910301175</v>
+        <v>-0.6202821235979747</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1874,13 +1874,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.2537519828713559</v>
+        <v>-0.2476558636449427</v>
       </c>
       <c r="C8">
-        <v>-0.3059390782371559</v>
+        <v>0.2049922325073675</v>
       </c>
       <c r="D8">
-        <v>0.2793077483169743</v>
+        <v>-0.2110095675828918</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1891,10 +1891,10 @@
         <v>0.1072365233858195</v>
       </c>
       <c r="C9">
+        <v>1.503036418428012</v>
+      </c>
+      <c r="D9">
         <v>1.269686504187911</v>
-      </c>
-      <c r="D9">
-        <v>1.503036418428012</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1902,13 +1902,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.3422987441583589</v>
+        <v>0.3515550044552875</v>
       </c>
       <c r="C10">
-        <v>0.60981209827544</v>
+        <v>0.6770744858039902</v>
       </c>
       <c r="D10">
-        <v>0.6880102839404058</v>
+        <v>0.6311934119765304</v>
       </c>
     </row>
   </sheetData>
@@ -1940,13 +1940,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1954,13 +1954,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>2.95885841741041</v>
+        <v>2.855917196790505</v>
       </c>
       <c r="C3">
-        <v>1.778152100403665</v>
+        <v>1.390375983666297</v>
       </c>
       <c r="D3">
-        <v>1.237653280647305</v>
+        <v>1.774038616018922</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1982,13 +1982,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1.479346155859394</v>
+        <v>1.434129466074073</v>
       </c>
       <c r="C5">
-        <v>0.3164328837675923</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.2761866608971959</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1996,13 +1996,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>2.925978457783936</v>
+        <v>2.535636867823203</v>
       </c>
       <c r="C6">
-        <v>1.597451685930993</v>
+        <v>0.4650688214709329</v>
       </c>
       <c r="D6">
-        <v>0.0003002764800001807</v>
+        <v>1.601396656505599</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2010,13 +2010,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>3.616284244086381</v>
+        <v>3.602332463778502</v>
       </c>
       <c r="C7">
-        <v>2.111194726878642</v>
+        <v>1.389899618209861</v>
       </c>
       <c r="D7">
-        <v>1.266544427316771</v>
+        <v>2.217128574432272</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2024,13 +2024,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>3.923596109933168</v>
+        <v>3.835696223519246</v>
       </c>
       <c r="C8">
-        <v>2.670631368613418</v>
+        <v>2.573590774460796</v>
       </c>
       <c r="D8">
-        <v>2.374811335749906</v>
+        <v>2.614412657478581</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2041,10 +2041,10 @@
         <v>5.182763035126016</v>
       </c>
       <c r="C9">
+        <v>5.116026499613823</v>
+      </c>
+      <c r="D9">
         <v>4.499606754741015</v>
-      </c>
-      <c r="D9">
-        <v>5.116026499613823</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2052,13 +2052,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>1.29378938200245</v>
+        <v>1.277110982480453</v>
       </c>
       <c r="C10">
-        <v>1.214425345148511</v>
+        <v>1.552297224792222</v>
       </c>
       <c r="D10">
-        <v>1.497540651229714</v>
+        <v>1.244641285900701</v>
       </c>
     </row>
   </sheetData>
@@ -2090,13 +2090,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2104,13 +2104,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-0.213904925880997</v>
+        <v>-0.2347588899099294</v>
       </c>
       <c r="C3">
-        <v>-0.3474747587035348</v>
+        <v>0.1800452657459407</v>
       </c>
       <c r="D3">
-        <v>0.2232907779848765</v>
+        <v>-0.3516856816382619</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2121,10 +2121,10 @@
         <v>-0.9536560083680714</v>
       </c>
       <c r="C4">
+        <v>-0.7392310901313746</v>
+      </c>
+      <c r="D4">
         <v>-1.645405219377277</v>
-      </c>
-      <c r="D4">
-        <v>-0.7392310901313746</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2132,13 +2132,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-0.5704459862229828</v>
+        <v>-0.5723979837081477</v>
       </c>
       <c r="C5">
-        <v>-1.110116407248055</v>
+        <v>-0.3431488509008744</v>
       </c>
       <c r="D5">
-        <v>-0.3021023351460703</v>
+        <v>-1.247869653497986</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2146,13 +2146,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.3670266275522732</v>
+        <v>-0.3578893548937792</v>
       </c>
       <c r="C6">
-        <v>-0.4837329680236547</v>
+        <v>-0.009698510195932099</v>
       </c>
       <c r="D6">
-        <v>0.0758483021310712</v>
+        <v>-0.5884802154615171</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2160,13 +2160,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.09709259221627561</v>
+        <v>-0.1026927088306908</v>
       </c>
       <c r="C7">
-        <v>-0.1442824564989208</v>
+        <v>0.1901657575244725</v>
       </c>
       <c r="D7">
-        <v>0.2623378868200372</v>
+        <v>-0.1217837885005752</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2174,13 +2174,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.09192692610231867</v>
+        <v>0.08178177072489097</v>
       </c>
       <c r="C8">
-        <v>0.2956733849466046</v>
+        <v>0.6974536602273793</v>
       </c>
       <c r="D8">
-        <v>0.7903387423344563</v>
+        <v>0.3284155238411693</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2191,10 +2191,10 @@
         <v>0.6039533645693834</v>
       </c>
       <c r="C9">
+        <v>1.237245458969156</v>
+      </c>
+      <c r="D9">
         <v>1.057653744628473</v>
-      </c>
-      <c r="D9">
-        <v>1.237245458969156</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2202,13 +2202,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.3739916811588478</v>
+        <v>0.3540294810217828</v>
       </c>
       <c r="C10">
-        <v>0.7567636813169863</v>
+        <v>0.5387275083235198</v>
       </c>
       <c r="D10">
-        <v>0.5398150498434381</v>
+        <v>0.7913735131399067</v>
       </c>
     </row>
   </sheetData>
